--- a/alphalib_united_states.xlsx
+++ b/alphalib_united_states.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EW11"/>
+  <dimension ref="A1:EW6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1269,7 +1269,7 @@
         <v>1660521600</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.7399</v>
+        <v>159.75</v>
       </c>
       <c r="AB2" t="n">
         <v>156.95</v>
@@ -1473,7 +1473,7 @@
         </is>
       </c>
       <c r="DB2" t="n">
-        <v>159.7399</v>
+        <v>159.75</v>
       </c>
       <c r="DC2" t="n">
         <v>156.95</v>
@@ -1488,7 +1488,7 @@
         <v>157.52</v>
       </c>
       <c r="DG2" t="n">
-        <v>5746143</v>
+        <v>5593145</v>
       </c>
       <c r="DH2" t="n">
         <v>-0.008450001</v>
@@ -1571,7 +1571,7 @@
         <v>173.71945</v>
       </c>
       <c r="EQ2" t="n">
-        <v>5746143</v>
+        <v>5593145</v>
       </c>
       <c r="ET2" t="inlineStr">
         <is>
@@ -2479,10 +2479,10 @@
         <v>1660521600</v>
       </c>
       <c r="AA5" t="n">
-        <v>51.005</v>
+        <v>50.97</v>
       </c>
       <c r="AB5" t="n">
-        <v>50.2501</v>
+        <v>50.25</v>
       </c>
       <c r="AD5" t="n">
         <v>2.04</v>
@@ -2689,10 +2689,10 @@
         <v>2.5</v>
       </c>
       <c r="DB5" t="n">
-        <v>51.005</v>
+        <v>50.97</v>
       </c>
       <c r="DC5" t="n">
-        <v>50.2501</v>
+        <v>50.25</v>
       </c>
       <c r="DD5" t="n">
         <v>50.31</v>
@@ -2704,7 +2704,7 @@
         <v>50.67</v>
       </c>
       <c r="DG5" t="n">
-        <v>18709444</v>
+        <v>18391920</v>
       </c>
       <c r="DH5" t="n">
         <v>0.0072000003</v>
@@ -2799,7 +2799,7 @@
         <v>55.37395</v>
       </c>
       <c r="EQ5" t="n">
-        <v>18709444</v>
+        <v>18391920</v>
       </c>
       <c r="ET5" t="inlineStr">
         <is>
@@ -2824,6 +2824,9 @@
           <t>Bank of America Corporate Center</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
         <v>34.94</v>
       </c>
@@ -2842,6 +2845,7 @@
       <c r="L6" t="n">
         <v>1.383939</v>
       </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
         <v>34.92</v>
       </c>
@@ -2851,11 +2855,14 @@
       <c r="P6" t="n">
         <v>29.867</v>
       </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr">
         <is>
           <t>Charlotte</t>
         </is>
       </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
           <t>[]</t>
@@ -2874,6 +2881,7 @@
       <c r="X6" t="n">
         <v>34.94</v>
       </c>
+      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
         <v>1660521600</v>
       </c>
@@ -2883,6 +2891,7 @@
       <c r="AB6" t="n">
         <v>34.84</v>
       </c>
+      <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="n">
         <v>0.88</v>
       </c>
@@ -2895,9 +2904,11 @@
       <c r="AG6" t="n">
         <v>-0.323</v>
       </c>
+      <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
+      <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="n">
         <v>1.745</v>
       </c>
@@ -2922,6 +2933,7 @@
           <t>EDT</t>
         </is>
       </c>
+      <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="n">
         <v>33.5838</v>
       </c>
@@ -2936,6 +2948,7 @@
           <t>USD</t>
         </is>
       </c>
+      <c r="AV6" t="inlineStr"/>
       <c r="AW6" t="n">
         <v>2.02</v>
       </c>
@@ -2948,9 +2961,13 @@
       <c r="AZ6" t="n">
         <v>9.292553</v>
       </c>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
       <c r="BC6" t="n">
         <v>210000</v>
       </c>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
       <c r="BF6" t="inlineStr">
         <is>
           <t>-14400000</t>
@@ -2979,6 +2996,7 @@
       <c r="BM6" t="b">
         <v>0</v>
       </c>
+      <c r="BN6" t="inlineStr"/>
       <c r="BO6" t="n">
         <v>1661990400</v>
       </c>
@@ -2988,6 +3006,7 @@
       <c r="BQ6" t="n">
         <v>1640908800</v>
       </c>
+      <c r="BR6" t="inlineStr"/>
       <c r="BS6" t="n">
         <v>1093824000</v>
       </c>
@@ -2996,6 +3015,7 @@
           <t>2:1</t>
         </is>
       </c>
+      <c r="BU6" t="inlineStr"/>
       <c r="BV6" t="inlineStr">
         <is>
           <t>https://logo.clearbit.com/bankofamerica.com</t>
@@ -3022,14 +3042,18 @@
       <c r="CA6" t="n">
         <v>1</v>
       </c>
+      <c r="CB6" t="inlineStr"/>
       <c r="CC6" t="inlineStr">
         <is>
           <t>finmb_19049</t>
         </is>
       </c>
+      <c r="CD6" t="inlineStr"/>
+      <c r="CE6" t="inlineStr"/>
       <c r="CF6" t="n">
         <v>1656547200</v>
       </c>
+      <c r="CG6" t="inlineStr"/>
       <c r="CH6" t="n">
         <v>26564999168</v>
       </c>
@@ -3042,6 +3066,7 @@
       <c r="CK6" t="n">
         <v>34.98</v>
       </c>
+      <c r="CL6" t="inlineStr"/>
       <c r="CM6" t="n">
         <v>3967000064</v>
       </c>
@@ -3059,6 +3084,7 @@
           <t>704 386 5681</t>
         </is>
       </c>
+      <c r="CR6" t="inlineStr"/>
       <c r="CS6" t="n">
         <v>34.65</v>
       </c>
@@ -3074,6 +3100,7 @@
       <c r="CW6" t="n">
         <v>0.30687</v>
       </c>
+      <c r="CX6" t="inlineStr"/>
       <c r="CY6" t="inlineStr">
         <is>
           <t>EQUITY</t>
@@ -3117,6 +3144,7 @@
       <c r="DK6" t="n">
         <v>11.097</v>
       </c>
+      <c r="DL6" t="inlineStr"/>
       <c r="DM6" t="inlineStr">
         <is>
           <t>Financial Services</t>
@@ -3148,11 +3176,13 @@
       <c r="DU6" t="n">
         <v>1.79</v>
       </c>
+      <c r="DV6" t="inlineStr"/>
       <c r="DW6" t="inlineStr">
         <is>
           <t>NC</t>
         </is>
       </c>
+      <c r="DX6" t="inlineStr"/>
       <c r="DY6" t="inlineStr">
         <is>
           <t>BAC</t>
@@ -3170,6 +3200,9 @@
       <c r="EC6" t="n">
         <v>41.5</v>
       </c>
+      <c r="ED6" t="inlineStr"/>
+      <c r="EE6" t="inlineStr"/>
+      <c r="EF6" t="inlineStr"/>
       <c r="EG6" t="n">
         <v>714179018752</v>
       </c>
@@ -3203,2132 +3236,18 @@
       <c r="EQ6" t="n">
         <v>37256548</v>
       </c>
+      <c r="ER6" t="inlineStr"/>
+      <c r="ES6" t="inlineStr"/>
       <c r="ET6" t="inlineStr">
         <is>
           <t>https://www.bankofamerica.com</t>
         </is>
       </c>
+      <c r="EU6" t="inlineStr"/>
+      <c r="EV6" t="inlineStr"/>
       <c r="EW6" t="inlineStr">
         <is>
           <t>28255</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>-0.18067878</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-0.089817464</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>208 South Akard Street</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>16.99</v>
-      </c>
-      <c r="H7" t="n">
-        <v>28000</v>
-      </c>
-      <c r="I7" t="n">
-        <v>41992150</v>
-      </c>
-      <c r="J7" t="n">
-        <v>39035500</v>
-      </c>
-      <c r="K7" t="n">
-        <v>41992150</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.6047169999999999</v>
-      </c>
-      <c r="N7" t="n">
-        <v>16.98</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1100</v>
-      </c>
-      <c r="P7" t="n">
-        <v>16.524</v>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Dallas</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="X7" t="n">
-        <v>17.03</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.701</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1660521600</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>17.07</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>16.86</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>119.978</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.0634</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1.518</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1.648</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>52527001600</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0.33542</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>5.721</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>300503007232</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1657238400</v>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>NYQ</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>America/New_York</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>EDT</t>
-        </is>
-      </c>
-      <c r="AR7" t="n">
-        <v>18.8202</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>16.63142</v>
-      </c>
-      <c r="AU7" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="AW7" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>7115524780</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>6.757937</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>37593001984</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>172400</v>
-      </c>
-      <c r="BF7" t="inlineStr">
-        <is>
-          <t>-14400000</t>
-        </is>
-      </c>
-      <c r="BG7" t="n">
-        <v>0.53938</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>89057000000</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>0.00118</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>0.54952997</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL7" t="inlineStr">
-        <is>
-          <t>Telecom Services</t>
-        </is>
-      </c>
-      <c r="BM7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>1657238400</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>0.278</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>1640908800</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>1649635200</v>
-      </c>
-      <c r="BT7" t="inlineStr">
-        <is>
-          <t>1324:1000</t>
-        </is>
-      </c>
-      <c r="BV7" t="inlineStr">
-        <is>
-          <t>https://logo.clearbit.com/att.com</t>
-        </is>
-      </c>
-      <c r="BW7" t="inlineStr">
-        <is>
-          <t>AT&amp;T Inc. provides telecommunications, media, and technology services worldwide. Its Communications segment offers wireless voice and data communications services; and sells handsets, wireless data cards, wireless computing devices, and carrying cases and hands-free devices through its own company-owned stores, agents, and third-party retail stores. It also provides data, voice, security, cloud solutions, outsourcing, and managed and professional services, as well as customer premises equipment for multinational corporations, small and mid-sized businesses, governmental, and wholesale customers. In addition, this segment offers broadband fiber and legacy telephony voice communication services to residential customers. It markets its communications services and products under the AT&amp;T, Cricket, AT&amp;T PREPAID, and AT&amp;T Fiber brand names. The company's Latin America segment provides wireless services in Mexico; and video services in Latin America. This segment markets its services and products under the AT&amp;T and Unefon brand names. The company was formerly known as SBC Communications Inc. and changed its name to AT&amp;T Inc. in 2005. AT&amp;T Inc. was incorporated in 1983 and is headquartered in Dallas, Texas.</t>
-        </is>
-      </c>
-      <c r="BX7" t="inlineStr">
-        <is>
-          <t>AT&amp;T Inc.</t>
-        </is>
-      </c>
-      <c r="BY7" t="inlineStr">
-        <is>
-          <t>us_market</t>
-        </is>
-      </c>
-      <c r="BZ7" t="n">
-        <v>121355788288</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC7" t="inlineStr">
-        <is>
-          <t>finmb_100231</t>
-        </is>
-      </c>
-      <c r="CF7" t="n">
-        <v>1656547200</v>
-      </c>
-      <c r="CH7" t="n">
-        <v>16186999808</v>
-      </c>
-      <c r="CI7" t="n">
-        <v>1703980800</v>
-      </c>
-      <c r="CJ7" t="n">
-        <v>22</v>
-      </c>
-      <c r="CK7" t="n">
-        <v>16.92</v>
-      </c>
-      <c r="CM7" t="n">
-        <v>32758999040</v>
-      </c>
-      <c r="CN7" t="n">
-        <v>0.20861</v>
-      </c>
-      <c r="CO7" t="n">
-        <v>0.7058</v>
-      </c>
-      <c r="CQ7" t="inlineStr">
-        <is>
-          <t>210 821 4105</t>
-        </is>
-      </c>
-      <c r="CS7" t="n">
-        <v>16.77</v>
-      </c>
-      <c r="CT7" t="n">
-        <v>2</v>
-      </c>
-      <c r="CU7" t="n">
-        <v>1.0306221</v>
-      </c>
-      <c r="CV7" t="n">
-        <v>0.77493125</v>
-      </c>
-      <c r="CW7" t="n">
-        <v>0.12725</v>
-      </c>
-      <c r="CX7" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="CY7" t="inlineStr">
-        <is>
-          <t>EQUITY</t>
-        </is>
-      </c>
-      <c r="CZ7" t="inlineStr">
-        <is>
-          <t>hold</t>
-        </is>
-      </c>
-      <c r="DA7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="DB7" t="n">
-        <v>17.07</v>
-      </c>
-      <c r="DC7" t="n">
-        <v>16.86</v>
-      </c>
-      <c r="DD7" t="n">
-        <v>16.92</v>
-      </c>
-      <c r="DE7" t="n">
-        <v>16.77</v>
-      </c>
-      <c r="DF7" t="n">
-        <v>17.03</v>
-      </c>
-      <c r="DG7" t="n">
-        <v>54882149</v>
-      </c>
-      <c r="DH7" t="n">
-        <v>0.04205</v>
-      </c>
-      <c r="DI7" t="n">
-        <v>0.11311</v>
-      </c>
-      <c r="DJ7" t="n">
-        <v>-0.171</v>
-      </c>
-      <c r="DK7" t="n">
-        <v>21.831</v>
-      </c>
-      <c r="DM7" t="inlineStr">
-        <is>
-          <t>Communication Services</t>
-        </is>
-      </c>
-      <c r="DN7" t="n">
-        <v>7126000128</v>
-      </c>
-      <c r="DO7" t="n">
-        <v>0.0109</v>
-      </c>
-      <c r="DP7" t="n">
-        <v>77502567</v>
-      </c>
-      <c r="DQ7" t="n">
-        <v>1657843200</v>
-      </c>
-      <c r="DR7" t="n">
-        <v>77367282</v>
-      </c>
-      <c r="DS7" t="inlineStr">
-        <is>
-          <t>AT&amp;T Inc.</t>
-        </is>
-      </c>
-      <c r="DT7" t="n">
-        <v>0.0109</v>
-      </c>
-      <c r="DU7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="DW7" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
-      <c r="DY7" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="DZ7" t="n">
-        <v>30</v>
-      </c>
-      <c r="EA7" t="n">
-        <v>10</v>
-      </c>
-      <c r="EB7" t="n">
-        <v>21.84</v>
-      </c>
-      <c r="EC7" t="n">
-        <v>22</v>
-      </c>
-      <c r="EG7" t="n">
-        <v>4100999936</v>
-      </c>
-      <c r="EH7" t="n">
-        <v>0.575</v>
-      </c>
-      <c r="EI7" t="n">
-        <v>162337996800</v>
-      </c>
-      <c r="EJ7" t="n">
-        <v>156602007552</v>
-      </c>
-      <c r="EK7" t="b">
-        <v>0</v>
-      </c>
-      <c r="EL7" t="n">
-        <v>1.595</v>
-      </c>
-      <c r="EM7" t="n">
-        <v>0.09511031</v>
-      </c>
-      <c r="EN7" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="EO7" t="n">
-        <v>16.219</v>
-      </c>
-      <c r="EP7" t="n">
-        <v>18.936562</v>
-      </c>
-      <c r="EQ7" t="n">
-        <v>54882149</v>
-      </c>
-      <c r="ET7" t="inlineStr">
-        <is>
-          <t>https://www.att.com</t>
-        </is>
-      </c>
-      <c r="EW7" t="inlineStr">
-        <is>
-          <t>75202</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>-0.08103782</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.089817464</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>510 Lake Cook Road</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>189.68</v>
-      </c>
-      <c r="H8" t="n">
-        <v>800</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2361030</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2894059</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2361030</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.999186</v>
-      </c>
-      <c r="N8" t="n">
-        <v>188</v>
-      </c>
-      <c r="O8" t="n">
-        <v>800</v>
-      </c>
-      <c r="P8" t="n">
-        <v>29.791</v>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Deerfield</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="X8" t="n">
-        <v>189.49</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1660521600</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>189.76</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>187.215</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>234.545</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.026300002</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0.223</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0.184</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>10492000256</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0.19418</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>12.146</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>2.359</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>127433744384</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1658188800</v>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>NYQ</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>America/New_York</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>EDT</t>
-        </is>
-      </c>
-      <c r="AR8" t="n">
-        <v>185.139</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>237.9</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>167.08</v>
-      </c>
-      <c r="AU8" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="AW8" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>526626324</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>13.731159</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>2850125056</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>107700</v>
-      </c>
-      <c r="BF8" t="inlineStr">
-        <is>
-          <t>-14400000</t>
-        </is>
-      </c>
-      <c r="BG8" t="n">
-        <v>0.25006</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>13189000000</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>0.00227</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>0.71309996</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL8" t="inlineStr">
-        <is>
-          <t>Farm &amp; Heavy Construction Machinery</t>
-        </is>
-      </c>
-      <c r="BM8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>1658188800</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>1640908800</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>1121299200</v>
-      </c>
-      <c r="BT8" t="inlineStr">
-        <is>
-          <t>2:1</t>
-        </is>
-      </c>
-      <c r="BV8" t="inlineStr">
-        <is>
-          <t>https://logo.clearbit.com/caterpillar.com</t>
-        </is>
-      </c>
-      <c r="BW8" t="inlineStr">
-        <is>
-          <t>Caterpillar Inc. manufactures and sells construction and mining equipment, diesel and natural gas engines, and industrial gas turbines worldwide. Its Construction Industries segment offers asphalt pavers, backhoe loaders, compactors, cold planers, compact track and multi-terrain loaders, excavators, motorgraders, pipelayers, road reclaimers, site prep tractors, skid steer loaders, telehandlers, and utility vehicles; mini, small, medium, and large excavators; compact, small, and medium wheel loaders; track-type tractors and loaders; and wheel excavators. The Resource Industries segment provides electric rope shovels, draglines, hydraulic shovels, rotary drills, hard rock vehicles, track-type tractors, mining trucks, longwall miners, wheel loaders, off-highway trucks, articulated trucks, wheel tractor scrapers, wheel dozers, fleet management, landfill compactors, soil compactors, machinery components, autonomous ready vehicles and solutions, select work tools, and safety services and mining performance solutions. The Energy &amp; Transportation segment offers reciprocating engines, generator sets, integrated systems and solutions, turbines and turbine-related services, remanufactured reciprocating engines and components, centrifugal gas compressors, diesel-electric locomotives and components, and other rail-related products and services for marine, oil and gas, industrial, and electric power generation sectors. The company's Financial Products segment provides operating and finance leases, installment sale contracts, working capital loans, and wholesale financing plans; and insurance and risk management products for vehicles, power generation facilities, and marine vessels. The All Other operating segment manufactures filters and fluids, undercarriage, ground engaging tools, etc. The company was formerly known as Caterpillar Tractor Co. and changed its name to Caterpillar Inc. in 1986. The company was founded in 1925 and is headquartered in Deerfield, Illinois.</t>
-        </is>
-      </c>
-      <c r="BX8" t="inlineStr">
-        <is>
-          <t>Caterpillar Inc.</t>
-        </is>
-      </c>
-      <c r="BY8" t="inlineStr">
-        <is>
-          <t>us_market</t>
-        </is>
-      </c>
-      <c r="BZ8" t="n">
-        <v>100033478656</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC8" t="inlineStr">
-        <is>
-          <t>finmb_259378</t>
-        </is>
-      </c>
-      <c r="CF8" t="n">
-        <v>1656547200</v>
-      </c>
-      <c r="CH8" t="n">
-        <v>6755999744</v>
-      </c>
-      <c r="CI8" t="n">
-        <v>1703980800</v>
-      </c>
-      <c r="CJ8" t="n">
-        <v>25</v>
-      </c>
-      <c r="CK8" t="n">
-        <v>187.55</v>
-      </c>
-      <c r="CM8" t="n">
-        <v>5697999872</v>
-      </c>
-      <c r="CN8" t="n">
-        <v>0.15338999</v>
-      </c>
-      <c r="CO8" t="n">
-        <v>0.35549998</v>
-      </c>
-      <c r="CP8" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="CQ8" t="inlineStr">
-        <is>
-          <t>224-551-4000</t>
-        </is>
-      </c>
-      <c r="CS8" t="n">
-        <v>183.15</v>
-      </c>
-      <c r="CT8" t="n">
-        <v>2</v>
-      </c>
-      <c r="CU8" t="n">
-        <v>6.360646</v>
-      </c>
-      <c r="CV8" t="n">
-        <v>1.851409</v>
-      </c>
-      <c r="CW8" t="n">
-        <v>0.12504</v>
-      </c>
-      <c r="CX8" t="n">
-        <v>0.828</v>
-      </c>
-      <c r="CY8" t="inlineStr">
-        <is>
-          <t>EQUITY</t>
-        </is>
-      </c>
-      <c r="CZ8" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="DA8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="DB8" t="n">
-        <v>189.76</v>
-      </c>
-      <c r="DC8" t="n">
-        <v>187.215</v>
-      </c>
-      <c r="DD8" t="n">
-        <v>187.55</v>
-      </c>
-      <c r="DE8" t="n">
-        <v>183.15</v>
-      </c>
-      <c r="DF8" t="n">
-        <v>189.49</v>
-      </c>
-      <c r="DG8" t="n">
-        <v>2279841</v>
-      </c>
-      <c r="DH8" t="n">
-        <v>0.06363000000000001</v>
-      </c>
-      <c r="DI8" t="n">
-        <v>0.4141</v>
-      </c>
-      <c r="DJ8" t="n">
-        <v>0.105</v>
-      </c>
-      <c r="DK8" t="n">
-        <v>100.663</v>
-      </c>
-      <c r="DM8" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="DN8" t="n">
-        <v>527908992</v>
-      </c>
-      <c r="DO8" t="n">
-        <v>0.0092</v>
-      </c>
-      <c r="DP8" t="n">
-        <v>4878423</v>
-      </c>
-      <c r="DQ8" t="n">
-        <v>1657843200</v>
-      </c>
-      <c r="DR8" t="n">
-        <v>5748406</v>
-      </c>
-      <c r="DS8" t="inlineStr">
-        <is>
-          <t>Caterpillar, Inc.</t>
-        </is>
-      </c>
-      <c r="DT8" t="n">
-        <v>0.009299999999999999</v>
-      </c>
-      <c r="DU8" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="DW8" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="DY8" t="inlineStr">
-        <is>
-          <t>CAT</t>
-        </is>
-      </c>
-      <c r="DZ8" t="n">
-        <v>278</v>
-      </c>
-      <c r="EA8" t="n">
-        <v>142</v>
-      </c>
-      <c r="EB8" t="n">
-        <v>214</v>
-      </c>
-      <c r="EC8" t="n">
-        <v>217</v>
-      </c>
-      <c r="EG8" t="n">
-        <v>5872000000</v>
-      </c>
-      <c r="EH8" t="n">
-        <v>11.123</v>
-      </c>
-      <c r="EI8" t="n">
-        <v>36962000896</v>
-      </c>
-      <c r="EJ8" t="n">
-        <v>54030999552</v>
-      </c>
-      <c r="EK8" t="b">
-        <v>0</v>
-      </c>
-      <c r="EL8" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="EM8" t="n">
-        <v>0.024733827</v>
-      </c>
-      <c r="EN8" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="EO8" t="n">
-        <v>1.2982</v>
-      </c>
-      <c r="EP8" t="n">
-        <v>202.99515</v>
-      </c>
-      <c r="EQ8" t="n">
-        <v>2279841</v>
-      </c>
-      <c r="ET8" t="inlineStr">
-        <is>
-          <t>https://www.caterpillar.com</t>
-        </is>
-      </c>
-      <c r="EW8" t="inlineStr">
-        <is>
-          <t>60015</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>-0.42789596</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-0.089817464</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2200 Mission College Boulevard</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>31.45</v>
-      </c>
-      <c r="H9" t="n">
-        <v>21500</v>
-      </c>
-      <c r="I9" t="n">
-        <v>38914520</v>
-      </c>
-      <c r="J9" t="n">
-        <v>39014374</v>
-      </c>
-      <c r="K9" t="n">
-        <v>38914520</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.650019</v>
-      </c>
-      <c r="N9" t="n">
-        <v>31.42</v>
-      </c>
-      <c r="O9" t="n">
-        <v>27000</v>
-      </c>
-      <c r="P9" t="n">
-        <v>24.651</v>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Santa Clara</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="X9" t="n">
-        <v>31.46</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1.859</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1660521600</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>31.075</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>35.004</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.0476</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>25333000192</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0.34515998</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>5.299</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>1.829</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>134234898432</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1659571200</v>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>NMS</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>America/New_York</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>EDT</t>
-        </is>
-      </c>
-      <c r="AR9" t="n">
-        <v>35.915</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>56.28</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>29.91</v>
-      </c>
-      <c r="AU9" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="AW9" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>4102099300</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>11.827067</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>2844124928</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>121100</v>
-      </c>
-      <c r="BF9" t="inlineStr">
-        <is>
-          <t>-14400000</t>
-        </is>
-      </c>
-      <c r="BG9" t="n">
-        <v>0.49848998</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>43815000000</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>0.00059999997</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>0.64008003</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL9" t="inlineStr">
-        <is>
-          <t>Semiconductors</t>
-        </is>
-      </c>
-      <c r="BM9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>1659571200</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>0.365</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>1640390400</v>
-      </c>
-      <c r="BS9" t="n">
-        <v>965001600</v>
-      </c>
-      <c r="BT9" t="inlineStr">
-        <is>
-          <t>2:1</t>
-        </is>
-      </c>
-      <c r="BV9" t="inlineStr">
-        <is>
-          <t>https://logo.clearbit.com/intel.com</t>
-        </is>
-      </c>
-      <c r="BW9" t="inlineStr">
-        <is>
-          <t>Intel Corporation engages in the design, manufacture, and sale of computer products and technologies worldwide. The company operates through CCG, DCG, IOTG, Mobileye, NSG, PSG, and All Other segments. It offers platform products, such as central processing units and chipsets, and system-on-chip and multichip packages; and non-platform or adjacent products, including accelerators, boards and systems, connectivity products, graphics, and memory and storage products. The company also provides high-performance compute solutions for targeted verticals and embedded applications for retail, industrial, and healthcare markets; and solutions for assisted and autonomous driving comprising compute platforms, computer vision and machine learning-based sensing, mapping and localization, driving policy, and active sensors. In addition, it offers workload-optimized platforms and related products for cloud service providers, enterprise and government, and communications service providers. The company serves original equipment manufacturers, original design manufacturers, and cloud service providers. Intel Corporation has a strategic partnership with MILA to develop and apply advances in artificial intelligence methods for enhancing the search in the space of drugs. The company was incorporated in 1968 and is headquartered in Santa Clara, California.</t>
-        </is>
-      </c>
-      <c r="BX9" t="inlineStr">
-        <is>
-          <t>Intel Corporation</t>
-        </is>
-      </c>
-      <c r="BY9" t="inlineStr">
-        <is>
-          <t>us_market</t>
-        </is>
-      </c>
-      <c r="BZ9" t="n">
-        <v>129174749184</v>
-      </c>
-      <c r="CA9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC9" t="inlineStr">
-        <is>
-          <t>finmb_21127</t>
-        </is>
-      </c>
-      <c r="CF9" t="n">
-        <v>1656720000</v>
-      </c>
-      <c r="CH9" t="n">
-        <v>19104999424</v>
-      </c>
-      <c r="CI9" t="n">
-        <v>1703462400</v>
-      </c>
-      <c r="CJ9" t="n">
-        <v>35</v>
-      </c>
-      <c r="CK9" t="n">
-        <v>31.19</v>
-      </c>
-      <c r="CM9" t="n">
-        <v>22542000128</v>
-      </c>
-      <c r="CN9" t="n">
-        <v>0.17446</v>
-      </c>
-      <c r="CO9" t="n">
-        <v>0.3058</v>
-      </c>
-      <c r="CP9" t="n">
-        <v>-85.06</v>
-      </c>
-      <c r="CQ9" t="inlineStr">
-        <is>
-          <t>408 765 8080</t>
-        </is>
-      </c>
-      <c r="CS9" t="n">
-        <v>30.75</v>
-      </c>
-      <c r="CT9" t="n">
-        <v>2</v>
-      </c>
-      <c r="CU9" t="n">
-        <v>1.276216</v>
-      </c>
-      <c r="CV9" t="n">
-        <v>1.7600178</v>
-      </c>
-      <c r="CW9" t="n">
-        <v>0.26031</v>
-      </c>
-      <c r="CX9" t="n">
-        <v>1.234</v>
-      </c>
-      <c r="CY9" t="inlineStr">
-        <is>
-          <t>EQUITY</t>
-        </is>
-      </c>
-      <c r="CZ9" t="inlineStr">
-        <is>
-          <t>hold</t>
-        </is>
-      </c>
-      <c r="DA9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="DB9" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="DC9" t="n">
-        <v>31.075</v>
-      </c>
-      <c r="DD9" t="n">
-        <v>31.19</v>
-      </c>
-      <c r="DE9" t="n">
-        <v>30.75</v>
-      </c>
-      <c r="DF9" t="n">
-        <v>31.46</v>
-      </c>
-      <c r="DG9" t="n">
-        <v>34081212</v>
-      </c>
-      <c r="DH9" t="n">
-        <v>0.049239997</v>
-      </c>
-      <c r="DI9" t="n">
-        <v>0.20496</v>
-      </c>
-      <c r="DJ9" t="n">
-        <v>-0.22</v>
-      </c>
-      <c r="DK9" t="n">
-        <v>17.989</v>
-      </c>
-      <c r="DM9" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="DN9" t="n">
-        <v>4105999872</v>
-      </c>
-      <c r="DO9" t="n">
-        <v>0.0154</v>
-      </c>
-      <c r="DP9" t="n">
-        <v>63382337</v>
-      </c>
-      <c r="DQ9" t="n">
-        <v>1657843200</v>
-      </c>
-      <c r="DR9" t="n">
-        <v>70008195</v>
-      </c>
-      <c r="DS9" t="inlineStr">
-        <is>
-          <t>Intel Corporation</t>
-        </is>
-      </c>
-      <c r="DT9" t="n">
-        <v>0.0154</v>
-      </c>
-      <c r="DU9" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="DW9" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="DY9" t="inlineStr">
-        <is>
-          <t>INTC</t>
-        </is>
-      </c>
-      <c r="DZ9" t="n">
-        <v>74</v>
-      </c>
-      <c r="EA9" t="n">
-        <v>20</v>
-      </c>
-      <c r="EB9" t="n">
-        <v>40.33</v>
-      </c>
-      <c r="EC9" t="n">
-        <v>37</v>
-      </c>
-      <c r="EG9" t="n">
-        <v>27043999744</v>
-      </c>
-      <c r="EH9" t="n">
-        <v>6.586</v>
-      </c>
-      <c r="EI9" t="n">
-        <v>35429998592</v>
-      </c>
-      <c r="EJ9" t="n">
-        <v>73394003968</v>
-      </c>
-      <c r="EK9" t="b">
-        <v>0</v>
-      </c>
-      <c r="EL9" t="n">
-        <v>1.425</v>
-      </c>
-      <c r="EM9" t="n">
-        <v>0.04634146</v>
-      </c>
-      <c r="EN9" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="EO9" t="n">
-        <v>3.7799</v>
-      </c>
-      <c r="EP9" t="n">
-        <v>44.3878</v>
-      </c>
-      <c r="EQ9" t="n">
-        <v>34081212</v>
-      </c>
-      <c r="ET9" t="inlineStr">
-        <is>
-          <t>https://www.intel.com</t>
-        </is>
-      </c>
-      <c r="EW9" t="inlineStr">
-        <is>
-          <t>95054-1549</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>-0.1095323</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-0.089817464</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>One Microsoft Way</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>264.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>900</v>
-      </c>
-      <c r="I10" t="n">
-        <v>22941120</v>
-      </c>
-      <c r="J10" t="n">
-        <v>24992435</v>
-      </c>
-      <c r="K10" t="n">
-        <v>22941120</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.942868</v>
-      </c>
-      <c r="N10" t="n">
-        <v>264.32</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1200</v>
-      </c>
-      <c r="P10" t="n">
-        <v>22.313</v>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Redmond</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="X10" t="n">
-        <v>264.46</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.785</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1660521600</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>265.2</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>260.39</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>47.075</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0.0094</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>97982996480</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0.49418998</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>19.86</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>9.815</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1945965035520</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1660694400</v>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>NMS</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>America/New_York</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>EDT</t>
-        </is>
-      </c>
-      <c r="AR10" t="n">
-        <v>270.0972</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>349.67</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>241.51</v>
-      </c>
-      <c r="AU10" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="AW10" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>7451328927</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>22.149078</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>49479000064</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>221000</v>
-      </c>
-      <c r="BF10" t="inlineStr">
-        <is>
-          <t>-14400000</t>
-        </is>
-      </c>
-      <c r="BG10" t="n">
-        <v>0.68402</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>135620000000</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>0.00072999997</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>0.72056997</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL10" t="inlineStr">
-        <is>
-          <t>Software—Infrastructure</t>
-        </is>
-      </c>
-      <c r="BM10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>1660694400</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>1656547200</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>1045526400</v>
-      </c>
-      <c r="BT10" t="inlineStr">
-        <is>
-          <t>2:1</t>
-        </is>
-      </c>
-      <c r="BV10" t="inlineStr">
-        <is>
-          <t>https://logo.clearbit.com/microsoft.com</t>
-        </is>
-      </c>
-      <c r="BW10" t="inlineStr">
-        <is>
-          <t>Microsoft Corporation develops, licenses, and supports software, services, devices, and solutions worldwide. The company operates in three segments: Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Productivity and Business Processes segment offers Office, Exchange, SharePoint, Microsoft Teams, Office 365 Security and Compliance, Microsoft Viva, and Skype for Business; Skype, Outlook.com, OneDrive, and LinkedIn; and Dynamics 365, a set of cloud-based and on-premises business solutions for organizations and enterprise divisions. The Intelligent Cloud segment licenses SQL, Windows Servers, Visual Studio, System Center, and related Client Access Licenses; GitHub that provides a collaboration platform and code hosting service for developers; Nuance provides healthcare and enterprise AI solutions; and Azure, a cloud platform. It also offers enterprise support, Microsoft consulting, and nuance professional services to assist customers in developing, deploying, and managing Microsoft server and desktop solutions; and training and certification on Microsoft products. The More Personal Computing segment provides Windows original equipment manufacturer (OEM) licensing and other non-volume licensing of the Windows operating system; Windows Commercial, such as volume licensing of the Windows operating system, Windows cloud services, and other Windows commercial offerings; patent licensing; and Windows Internet of Things. It also offers Surface, PC accessories, PCs, tablets, gaming and entertainment consoles, and other devices; Gaming, including Xbox hardware, and Xbox content and services; video games and third-party video game royalties; and Search, including Bing and Microsoft advertising. The company sells its products through OEMs, distributors, and resellers; and directly through digital marketplaces, online stores, and retail stores. Microsoft Corporation was founded in 1975 and is headquartered in Redmond, Washington.</t>
-        </is>
-      </c>
-      <c r="BX10" t="inlineStr">
-        <is>
-          <t>Microsoft Corporation</t>
-        </is>
-      </c>
-      <c r="BY10" t="inlineStr">
-        <is>
-          <t>us_market</t>
-        </is>
-      </c>
-      <c r="BZ10" t="n">
-        <v>1928013807616</v>
-      </c>
-      <c r="CA10" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC10" t="inlineStr">
-        <is>
-          <t>finmb_21835</t>
-        </is>
-      </c>
-      <c r="CF10" t="n">
-        <v>1656547200</v>
-      </c>
-      <c r="CH10" t="n">
-        <v>72737996800</v>
-      </c>
-      <c r="CI10" t="n">
-        <v>1719705600</v>
-      </c>
-      <c r="CJ10" t="n">
-        <v>47</v>
-      </c>
-      <c r="CK10" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="CM10" t="n">
-        <v>89034997760</v>
-      </c>
-      <c r="CN10" t="n">
-        <v>0.42055</v>
-      </c>
-      <c r="CO10" t="n">
-        <v>0.2508</v>
-      </c>
-      <c r="CP10" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="CQ10" t="inlineStr">
-        <is>
-          <t>425 882 8080</t>
-        </is>
-      </c>
-      <c r="CS10" t="n">
-        <v>258.52</v>
-      </c>
-      <c r="CT10" t="n">
-        <v>2</v>
-      </c>
-      <c r="CU10" t="n">
-        <v>11.8522835</v>
-      </c>
-      <c r="CV10" t="n">
-        <v>9.724183999999999</v>
-      </c>
-      <c r="CW10" t="n">
-        <v>0.36686</v>
-      </c>
-      <c r="CX10" t="n">
-        <v>1.567</v>
-      </c>
-      <c r="CY10" t="inlineStr">
-        <is>
-          <t>EQUITY</t>
-        </is>
-      </c>
-      <c r="CZ10" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="DA10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="DB10" t="n">
-        <v>265.2</v>
-      </c>
-      <c r="DC10" t="n">
-        <v>260.39</v>
-      </c>
-      <c r="DD10" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="DE10" t="n">
-        <v>258.52</v>
-      </c>
-      <c r="DF10" t="n">
-        <v>264.46</v>
-      </c>
-      <c r="DG10" t="n">
-        <v>22042099</v>
-      </c>
-      <c r="DH10" t="n">
-        <v>0.14919</v>
-      </c>
-      <c r="DI10" t="n">
-        <v>0.47151002</v>
-      </c>
-      <c r="DJ10" t="n">
-        <v>0.124</v>
-      </c>
-      <c r="DK10" t="n">
-        <v>26.45</v>
-      </c>
-      <c r="DM10" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="DN10" t="n">
-        <v>7457889792</v>
-      </c>
-      <c r="DO10" t="n">
-        <v>0.0050999997</v>
-      </c>
-      <c r="DP10" t="n">
-        <v>38084466</v>
-      </c>
-      <c r="DQ10" t="n">
-        <v>1657843200</v>
-      </c>
-      <c r="DR10" t="n">
-        <v>38999356</v>
-      </c>
-      <c r="DS10" t="inlineStr">
-        <is>
-          <t>Microsoft Corporation</t>
-        </is>
-      </c>
-      <c r="DT10" t="n">
-        <v>0.0050999997</v>
-      </c>
-      <c r="DU10" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="DW10" t="inlineStr">
-        <is>
-          <t>WA</t>
-        </is>
-      </c>
-      <c r="DY10" t="inlineStr">
-        <is>
-          <t>MSFT</t>
-        </is>
-      </c>
-      <c r="DZ10" t="n">
-        <v>411</v>
-      </c>
-      <c r="EA10" t="n">
-        <v>250</v>
-      </c>
-      <c r="EB10" t="n">
-        <v>333</v>
-      </c>
-      <c r="EC10" t="n">
-        <v>330</v>
-      </c>
-      <c r="EG10" t="n">
-        <v>104748998656</v>
-      </c>
-      <c r="EH10" t="n">
-        <v>14.045</v>
-      </c>
-      <c r="EI10" t="n">
-        <v>78399995904</v>
-      </c>
-      <c r="EJ10" t="n">
-        <v>198269992960</v>
-      </c>
-      <c r="EK10" t="b">
-        <v>0</v>
-      </c>
-      <c r="EL10" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="EM10" t="n">
-        <v>0.009593068999999999</v>
-      </c>
-      <c r="EN10" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="EO10" t="n">
-        <v>1.963</v>
-      </c>
-      <c r="EP10" t="n">
-        <v>288.61115</v>
-      </c>
-      <c r="EQ10" t="n">
-        <v>22042099</v>
-      </c>
-      <c r="ET10" t="inlineStr">
-        <is>
-          <t>https://www.microsoft.com</t>
-        </is>
-      </c>
-      <c r="EW10" t="inlineStr">
-        <is>
-          <t>98052-6399</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>0.06907761</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-0.089817464</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>201 Isabella Street</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
-        <v>52.78</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1200</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5894110</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5863348</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5894110</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.331435</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
-        <v>52.51</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1200</v>
-      </c>
-      <c r="P11" t="n">
-        <v>31.491</v>
-      </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Pittsburgh</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="X11" t="n">
-        <v>52.62</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1.812</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1660521600</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>53.07</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>50.27</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>24.863</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0.0083</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0.777</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>3545999872</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0.2649</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>2.947</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0.781</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>10451803136</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1659916800</v>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>NYQ</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>America/New_York</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>EDT</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="n">
-        <v>48.5256</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>98.09</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>39.565</v>
-      </c>
-      <c r="AU11" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="AV11" t="inlineStr"/>
-      <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="n">
-        <v>179000365</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>7.3904495</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>898875008</v>
-      </c>
-      <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="n">
-        <v>12200</v>
-      </c>
-      <c r="BD11" t="inlineStr"/>
-      <c r="BE11" t="inlineStr"/>
-      <c r="BF11" t="inlineStr">
-        <is>
-          <t>-14400000</t>
-        </is>
-      </c>
-      <c r="BG11" t="n">
-        <v>0.28298</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>3053000000</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>0.00877</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>0.86191005</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL11" t="inlineStr">
-        <is>
-          <t>Aluminum</t>
-        </is>
-      </c>
-      <c r="BM11" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN11" t="inlineStr"/>
-      <c r="BO11" t="n">
-        <v>1659916800</v>
-      </c>
-      <c r="BP11" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="BQ11" t="n">
-        <v>1640908800</v>
-      </c>
-      <c r="BR11" t="inlineStr"/>
-      <c r="BS11" t="n">
-        <v>1477958400</v>
-      </c>
-      <c r="BT11" t="inlineStr">
-        <is>
-          <t>1000:801</t>
-        </is>
-      </c>
-      <c r="BU11" t="inlineStr"/>
-      <c r="BV11" t="inlineStr">
-        <is>
-          <t>https://logo.clearbit.com/alcoa.com</t>
-        </is>
-      </c>
-      <c r="BW11" t="inlineStr">
-        <is>
-          <t>Alcoa Corporation, together with its subsidiaries, produces and sells bauxite, alumina, and aluminum products in the United States, Spain, Australia, Iceland, Norway, Brazil, Canada, and internationally. The company operates through three segments: Bauxite, Alumina, and Aluminum. It engages in bauxite mining operations; and processes bauxite into alumina and sells it to customers who process it into industrial chemical products, as well as aluminum smelting and casting businesses. The company offers primary aluminum in the form of alloy ingot or value-add ingot to customers that produce products for the transportation, building and construction, packaging, wire, and other industrial markets. In addition, it owns hydro power plants that generates and sells electricity in the wholesale market to traders, large industrial consumers, distribution companies, and other generation companies. The company was formerly known as Alcoa Upstream Corporation and changed its name to Alcoa Corporation in October 2016. The company was founded in 1888 and is headquartered in Pittsburgh, Pennsylvania.</t>
-        </is>
-      </c>
-      <c r="BX11" t="inlineStr">
-        <is>
-          <t>Alcoa Corporation</t>
-        </is>
-      </c>
-      <c r="BY11" t="inlineStr">
-        <is>
-          <t>us_market</t>
-        </is>
-      </c>
-      <c r="BZ11" t="n">
-        <v>9467653120</v>
-      </c>
-      <c r="CA11" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB11" t="inlineStr"/>
-      <c r="CC11" t="inlineStr">
-        <is>
-          <t>finmb_369991357</t>
-        </is>
-      </c>
-      <c r="CD11" t="inlineStr"/>
-      <c r="CE11" t="inlineStr"/>
-      <c r="CF11" t="n">
-        <v>1656547200</v>
-      </c>
-      <c r="CG11" t="inlineStr"/>
-      <c r="CH11" t="n">
-        <v>963000000</v>
-      </c>
-      <c r="CI11" t="n">
-        <v>1703980800</v>
-      </c>
-      <c r="CJ11" t="n">
-        <v>12</v>
-      </c>
-      <c r="CK11" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="CL11" t="inlineStr"/>
-      <c r="CM11" t="n">
-        <v>1570000000</v>
-      </c>
-      <c r="CN11" t="n">
-        <v>0.21694</v>
-      </c>
-      <c r="CO11" t="n">
-        <v>0.0584</v>
-      </c>
-      <c r="CP11" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="CQ11" t="inlineStr">
-        <is>
-          <t>412 315 2900</t>
-        </is>
-      </c>
-      <c r="CR11" t="inlineStr"/>
-      <c r="CS11" t="n">
-        <v>48.86</v>
-      </c>
-      <c r="CT11" t="n">
-        <v>2</v>
-      </c>
-      <c r="CU11" t="n">
-        <v>1.6709536</v>
-      </c>
-      <c r="CV11" t="n">
-        <v>0.7072802</v>
-      </c>
-      <c r="CW11" t="n">
-        <v>0.07194</v>
-      </c>
-      <c r="CX11" t="n">
-        <v>0.822</v>
-      </c>
-      <c r="CY11" t="inlineStr">
-        <is>
-          <t>EQUITY</t>
-        </is>
-      </c>
-      <c r="CZ11" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="DA11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="DB11" t="n">
-        <v>53.07</v>
-      </c>
-      <c r="DC11" t="n">
-        <v>50.27</v>
-      </c>
-      <c r="DD11" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="DE11" t="n">
-        <v>48.86</v>
-      </c>
-      <c r="DF11" t="n">
-        <v>52.62</v>
-      </c>
-      <c r="DG11" t="n">
-        <v>7269523</v>
-      </c>
-      <c r="DH11" t="n">
-        <v>0.12041</v>
-      </c>
-      <c r="DI11" t="n">
-        <v>0.19323</v>
-      </c>
-      <c r="DJ11" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="DK11" t="n">
-        <v>72.553</v>
-      </c>
-      <c r="DL11" t="inlineStr"/>
-      <c r="DM11" t="inlineStr">
-        <is>
-          <t>Basic Materials</t>
-        </is>
-      </c>
-      <c r="DN11" t="n">
-        <v>179924992</v>
-      </c>
-      <c r="DO11" t="n">
-        <v>0.0434</v>
-      </c>
-      <c r="DP11" t="n">
-        <v>7815548</v>
-      </c>
-      <c r="DQ11" t="n">
-        <v>1657843200</v>
-      </c>
-      <c r="DR11" t="n">
-        <v>9341309</v>
-      </c>
-      <c r="DS11" t="inlineStr">
-        <is>
-          <t>Alcoa Corporation</t>
-        </is>
-      </c>
-      <c r="DT11" t="n">
-        <v>0.049000002</v>
-      </c>
-      <c r="DU11" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="DV11" t="inlineStr"/>
-      <c r="DW11" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="DX11" t="inlineStr"/>
-      <c r="DY11" t="inlineStr">
-        <is>
-          <t>AA</t>
-        </is>
-      </c>
-      <c r="DZ11" t="n">
-        <v>75</v>
-      </c>
-      <c r="EA11" t="n">
-        <v>45</v>
-      </c>
-      <c r="EB11" t="n">
-        <v>58.22</v>
-      </c>
-      <c r="EC11" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="ED11" t="inlineStr"/>
-      <c r="EE11" t="inlineStr"/>
-      <c r="EF11" t="inlineStr"/>
-      <c r="EG11" t="n">
-        <v>1638000000</v>
-      </c>
-      <c r="EH11" t="n">
-        <v>9.103999999999999</v>
-      </c>
-      <c r="EI11" t="n">
-        <v>1812999936</v>
-      </c>
-      <c r="EJ11" t="n">
-        <v>13386000384</v>
-      </c>
-      <c r="EK11" t="b">
-        <v>0</v>
-      </c>
-      <c r="EL11" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="EM11" t="n">
-        <v>0.006139992</v>
-      </c>
-      <c r="EN11" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="EO11" t="inlineStr"/>
-      <c r="EP11" t="n">
-        <v>61.512</v>
-      </c>
-      <c r="EQ11" t="n">
-        <v>7269523</v>
-      </c>
-      <c r="ER11" t="inlineStr"/>
-      <c r="ES11" t="inlineStr"/>
-      <c r="ET11" t="inlineStr">
-        <is>
-          <t>https://www.alcoa.com</t>
-        </is>
-      </c>
-      <c r="EU11" t="inlineStr"/>
-      <c r="EV11" t="inlineStr"/>
-      <c r="EW11" t="inlineStr">
-        <is>
-          <t>15212-5858</t>
         </is>
       </c>
     </row>
